--- a/biology/Zoologie/Haplorrhini/Haplorrhini.xlsx
+++ b/biology/Zoologie/Haplorrhini/Haplorrhini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplorrhiniens
 Les Haplorrhiniens (Haplorrhini) (du grec ancien ἁπλόος / haplóos, « simple », et ῥίς, ῥινός / rhís, rhinós, « nez »), forment un sous-ordre de Primates. Par opposition aux Strepsirrhiniens (du grec ancien streptos, tressé, et rhinos, nez), les Haplorrhiniens ont perdu le rhinarium (ou « truffe ») au profit d'un nez. Les Haplorrhiniens incluent les Tarsiiformes (ou tarsiers) et les Simiiformes (ou singes).
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011) :
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhinarium (ou « truffe ») des Strepsirrhiniens est remplacé par un nez, dont les vibrisses (moustaches sensitives) ont disparu.
 Le placenta est hémochorial (les capillaires utérins pénètrent à l'intérieur du tissu placentaire).
@@ -575,7 +591,9 @@
           <t>Liste des familles actuelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon NCBI :
 infra-ordre Tarsiiformes
@@ -620,7 +638,9 @@
           <t>Liste des familles éteintes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">dans l'infra-ordre des Tarsiiformes :
 famille Omomyidae[a]
